--- a/chasin/Demo/pdf_webapp.xlsx
+++ b/chasin/Demo/pdf_webapp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brych/Documents/GitHub/TradingBot/chasin/Demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C5BFDF-290A-D542-924A-F70C527DFBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51737B56-DA98-B548-B5A2-17DB152E4A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16540" xr2:uid="{F437DF16-9216-1045-AA0C-E775AEB41917}"/>
   </bookViews>
